--- a/grupa2_dzien1.xlsx
+++ b/grupa2_dzien1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\OneDrive\Desktop\EXCEL\BeckerWarkop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B48AE9-C805-46E7-A667-A8D98B9E9F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77712EA8-9404-4ADB-B8AF-67AB5EEDE1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{5A5295D7-F482-480E-9146-B07EE135058A}"/>
   </bookViews>
@@ -28,6 +28,7 @@
   <definedNames>
     <definedName name="dolar">kursy!$B$1</definedName>
     <definedName name="euro">kursy!$B$2</definedName>
+    <definedName name="marza1">kursy!$B$4</definedName>
     <definedName name="rubel">kursy!$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>suma</t>
   </si>
@@ -290,6 +291,15 @@
   </si>
   <si>
     <t>Piasek</t>
+  </si>
+  <si>
+    <t>elemnty_rosnąco</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>owoce_w_dol</t>
   </si>
 </sst>
 </file>
@@ -371,29 +381,30 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -404,110 +415,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8696B"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -531,6 +438,7 @@
       <sheetName val="a"/>
       <sheetName val="marza"/>
       <sheetName val="Arkusz1"/>
+      <sheetName val="kursy"/>
     </sheetNames>
     <definedNames>
       <definedName name="podstawowa" refersTo="='marza'!$B$1"/>
@@ -538,13 +446,7 @@
       <definedName name="vat_11" refersTo="='marza'!$B$7"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Value</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="B1">
@@ -563,15 +465,16 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7391A26E-BED4-44F1-AC1B-B0A77E4EA24D}" name="Tabela5" displayName="Tabela5" ref="A1:L15" totalsRowShown="0">
-  <autoFilter ref="A1:L15" xr:uid="{7391A26E-BED4-44F1-AC1B-B0A77E4EA24D}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7391A26E-BED4-44F1-AC1B-B0A77E4EA24D}" name="Tabela5" displayName="Tabela5" ref="A1:O15" totalsRowShown="0">
+  <autoFilter ref="A1:O15" xr:uid="{7391A26E-BED4-44F1-AC1B-B0A77E4EA24D}"/>
+  <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{253546DC-94A5-4E64-9CB9-5BC61B1C79D3}" name="rok" dataDxfId="7"/>
     <tableColumn id="1" xr3:uid="{D5EA3D2C-11E8-4820-8019-BDB12A3FC96D}" name="produkt"/>
     <tableColumn id="2" xr3:uid="{29959C70-6247-4795-B449-FDE99DD12BA8}" name="zboże"/>
@@ -580,16 +483,23 @@
     <tableColumn id="5" xr3:uid="{3BE7A899-4B0C-40B3-8262-988D3F9D5167}" name="warzywa"/>
     <tableColumn id="6" xr3:uid="{64A46032-D1FF-4B09-A000-34C4126947A4}" name="owoce"/>
     <tableColumn id="7" xr3:uid="{A5E70619-A6F4-47EB-8233-9F5CABB5D570}" name="alkohol"/>
-    <tableColumn id="8" xr3:uid="{5F862CD6-D575-4911-8596-A357AFD6183E}" name="zboże z vat" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{5F862CD6-D575-4911-8596-A357AFD6183E}" name="zboże z vat" dataDxfId="6">
       <calculatedColumnFormula array="1">[1]!vat_11*Tabela5[[#This Row],[zboże]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1EF8857B-7633-4A5C-B4A5-9D9900982EEF}" name="mleko_vat23" dataDxfId="14">
+    <tableColumn id="9" xr3:uid="{1EF8857B-7633-4A5C-B4A5-9D9900982EEF}" name="mleko_vat23" dataDxfId="5">
       <calculatedColumnFormula array="1">[1]!vat_07*Tabela5[[#This Row],[mleko]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BFF71C14-67AD-4BFE-BAF1-E2E15E61F972}" name="alkohol_z_marza" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{BFF71C14-67AD-4BFE-BAF1-E2E15E61F972}" name="alkohol_z_marza" dataDxfId="4">
       <calculatedColumnFormula array="1">[1]!podstawowa*Tabela5[[#This Row],[alkohol]]+Tabela5[[#This Row],[alkohol]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F74FF170-A915-450B-9ADC-BE3E639ACA1F}" name="przedstawiciel" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{F74FF170-A915-450B-9ADC-BE3E639ACA1F}" name="przedstawiciel" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{72066C55-8EF7-4453-A346-30FAB5F8A89A}" name="elemnty_rosnąco" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{D962A26D-0E5F-4093-9EE2-9DD0F50CD08B}" name="data" dataDxfId="1">
+      <calculatedColumnFormula>TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{8DEAAF6F-9013-4871-9F82-41544D2BDD44}" name="owoce_w_dol" dataDxfId="0">
+      <calculatedColumnFormula>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -892,6 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCAC85-F276-4A06-A24A-2ABF179DA95F}">
+  <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -1554,43 +1465,43 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <f>SUM(B3:B12)</f>
+        <f t="shared" ref="B13:K13" si="2">SUM(B3:B12)</f>
         <v>55</v>
       </c>
       <c r="C13" s="1">
-        <f>SUM(C3:C12)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="D13" s="1">
-        <f>SUM(D3:D12)</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(E3:E12)</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="F13" s="1">
-        <f>SUM(F3:F12)</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="G13" s="1">
-        <f>SUM(G3:G12)</f>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="H13" s="1">
-        <f>SUM(H3:H12)</f>
+        <f t="shared" si="2"/>
         <v>385</v>
       </c>
       <c r="I13" s="1">
-        <f>SUM(I3:I12)</f>
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
       <c r="J13" s="1">
-        <f>SUM(J3:J12)</f>
+        <f t="shared" si="2"/>
         <v>495</v>
       </c>
       <c r="K13" s="1">
-        <f>SUM(K3:K12)</f>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="L13" t="s">
@@ -1615,39 +1526,39 @@
         <v>5.5</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:K14" si="2">AVERAGE(C3:C12)</f>
+        <f t="shared" ref="C14:K14" si="3">AVERAGE(C3:C12)</f>
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="L14" t="s">
@@ -1672,39 +1583,39 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:K15" si="3">COUNT(C3:C12)</f>
+        <f t="shared" ref="C15:K15" si="4">COUNT(C3:C12)</f>
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -1716,6 +1627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5994E8-8A2A-43AC-8E77-604A857F8F47}">
+  <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
@@ -1794,7 +1706,7 @@
       </c>
       <c r="F2" s="2">
         <f ca="1">TODAY()+A2</f>
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1845,7 +1757,7 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F12" ca="1" si="1">TODAY()+A3</f>
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1895,7 +1807,7 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1946,7 +1858,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44541</v>
+        <v>44542</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -1997,7 +1909,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2048,7 +1960,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -2099,7 +2011,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -2150,7 +2062,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -2201,7 +2113,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -2252,7 +2164,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44547</v>
+        <v>44548</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -2303,7 +2215,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -2341,6 +2253,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68175312-40FD-4D74-8F0A-DB1CFD4392D6}">
+  <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -2641,6 +2554,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE15AB7-5216-4B07-A276-BD9B311AA9BE}">
+  <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -3034,6 +2948,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FBB996-9FBC-4012-901C-6EEF023E7BC8}">
+  <sheetPr codeName="Arkusz5"/>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -3427,10 +3342,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE45F437-E2A6-4DD7-B202-BF6ABF7A339A}">
-  <dimension ref="A1:L15"/>
+  <sheetPr codeName="Arkusz6"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,9 +3355,10 @@
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -3478,8 +3395,17 @@
       <c r="L1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2021</v>
       </c>
@@ -3517,8 +3443,19 @@
         <v>51.298000000000002</v>
       </c>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44540</v>
+      </c>
+      <c r="O2" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2021</v>
       </c>
@@ -3556,8 +3493,19 @@
         <v>5.9020000000000001</v>
       </c>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="4">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44541</v>
+      </c>
+      <c r="O3" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2021</v>
       </c>
@@ -3595,8 +3543,19 @@
         <v>12.388999999999999</v>
       </c>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44542</v>
+      </c>
+      <c r="O4" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2021</v>
       </c>
@@ -3634,8 +3593,19 @@
         <v>18.875999999999998</v>
       </c>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44543</v>
+      </c>
+      <c r="O5" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -3673,8 +3643,19 @@
         <v>31.836999999999996</v>
       </c>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44544</v>
+      </c>
+      <c r="O6" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>58.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2021</v>
       </c>
@@ -3712,8 +3693,19 @@
         <v>25.363000000000003</v>
       </c>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="4">
+        <v>6</v>
+      </c>
+      <c r="N7" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44545</v>
+      </c>
+      <c r="O7" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2021</v>
       </c>
@@ -3751,8 +3743,19 @@
         <v>38.323999999999998</v>
       </c>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44546</v>
+      </c>
+      <c r="O8" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2021</v>
       </c>
@@ -3792,8 +3795,19 @@
       <c r="L9" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="4">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44547</v>
+      </c>
+      <c r="O9" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>21.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2021</v>
       </c>
@@ -3833,8 +3847,19 @@
       <c r="L10" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="4">
+        <v>9</v>
+      </c>
+      <c r="N10" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44548</v>
+      </c>
+      <c r="O10" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2021</v>
       </c>
@@ -3874,8 +3899,19 @@
       <c r="L11" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="4">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44549</v>
+      </c>
+      <c r="O11" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>30.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2021</v>
       </c>
@@ -3915,8 +3951,19 @@
       <c r="L12" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="4">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44550</v>
+      </c>
+      <c r="O12" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>33.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2021</v>
       </c>
@@ -3956,8 +4003,19 @@
       <c r="L13" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="4">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44551</v>
+      </c>
+      <c r="O13" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2022</v>
       </c>
@@ -3995,8 +4053,19 @@
         <v>3.9</v>
       </c>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="4">
+        <v>13</v>
+      </c>
+      <c r="N14" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44552</v>
+      </c>
+      <c r="O14" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2022</v>
       </c>
@@ -4034,6 +4103,17 @@
         <v>44.2</v>
       </c>
       <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>14</v>
+      </c>
+      <c r="N15" s="2">
+        <f ca="1">TODAY()+Tabela5[[#This Row],[elemnty_rosnąco]]</f>
+        <v>44553</v>
+      </c>
+      <c r="O15" s="4">
+        <f>ROUND((Tabela5[[#This Row],[owoce]]/dolar),2)</f>
+        <v>10.32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4050,7 +4130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D15">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4091,6 +4171,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6848988-4E81-484A-B9BD-F19B14D4C304}">
+  <sheetPr codeName="Arkusz7"/>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -4139,10 +4220,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477F6C1A-4E98-40AD-93BF-AE243A66DBE8}">
-  <dimension ref="A1:B3"/>
+  <sheetPr codeName="Arkusz8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,6 +4253,11 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
